--- a/Symphony/2020/December/All Details/31.12.2020/MC Bank Statement Dec-2020.xlsx
+++ b/Symphony/2020/December/All Details/31.12.2020/MC Bank Statement Dec-2020.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\MCN\Symphony\2020\December\All Details\31.12.2020\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" tabRatio="599" activeTab="2"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" tabRatio="599" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Dec 2020" sheetId="7" r:id="rId1"/>
@@ -12,7 +17,7 @@
     <sheet name="Expence" sheetId="15" r:id="rId3"/>
     <sheet name="CAPITAL" sheetId="10" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -32,7 +37,7 @@
     <author>LENOVO</author>
   </authors>
   <commentList>
-    <comment ref="D6" authorId="0">
+    <comment ref="D6" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -57,7 +62,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R7" authorId="0">
+    <comment ref="R7" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -82,7 +87,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F8" authorId="0">
+    <comment ref="F8" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -106,7 +111,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F14" authorId="0">
+    <comment ref="F14" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -130,7 +135,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R21" authorId="0">
+    <comment ref="R21" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -154,7 +159,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R25" authorId="0">
+    <comment ref="R25" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -178,7 +183,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R27" authorId="0">
+    <comment ref="R27" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -202,7 +207,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D28" authorId="0">
+    <comment ref="D28" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -226,7 +231,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R30" authorId="0">
+    <comment ref="R30" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -250,7 +255,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O32" authorId="0">
+    <comment ref="O32" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -932,9 +937,9 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="50">
     <font>
@@ -1260,7 +1265,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="46">
+  <fills count="45">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1509,12 +1514,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="-0.249977111117893"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2193,14 +2192,14 @@
     <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="28" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="29" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0">
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
@@ -2225,7 +2224,7 @@
     <xf numFmtId="0" fontId="30" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="337">
+  <cellXfs count="333">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3044,18 +3043,6 @@
     <xf numFmtId="0" fontId="36" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="45" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="2" fontId="39" fillId="45" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="39" fillId="45" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="45" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3107,6 +3094,24 @@
     <xf numFmtId="0" fontId="39" fillId="35" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="39" fillId="35" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="35" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="35" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="35" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="35" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="35" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3134,12 +3139,6 @@
     <xf numFmtId="1" fontId="39" fillId="35" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="35" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="35" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="39" fillId="35" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3150,18 +3149,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="39" fillId="35" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="35" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="35" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="35" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="35" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3282,7 +3269,7 @@
         <xdr:cNvPr id="1845" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{47ED9286-E99E-4170-A6CD-A90D2E00B60F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{47ED9286-E99E-4170-A6CD-A90D2E00B60F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3294,7 +3281,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -3317,14 +3304,14 @@
         </a:ln>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
             </a14:hiddenFill>
           </a:ext>
           <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -3361,7 +3348,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AEF7B42F-C37B-44F8-8D5A-2ED7FEE15E8A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AEF7B42F-C37B-44F8-8D5A-2ED7FEE15E8A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3373,7 +3360,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -3396,14 +3383,14 @@
         </a:ln>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
             </a14:hiddenFill>
           </a:ext>
           <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -3435,7 +3422,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{AEF7B42F-C37B-44F8-8D5A-2ED7FEE15E8A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AEF7B42F-C37B-44F8-8D5A-2ED7FEE15E8A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3447,7 +3434,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -3470,14 +3457,14 @@
         </a:ln>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
             </a14:hiddenFill>
           </a:ext>
           <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -3588,7 +3575,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3620,9 +3607,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3654,6 +3642,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -3829,7 +3818,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H85"/>
   <sheetViews>
     <sheetView topLeftCell="A19" workbookViewId="0">
@@ -3854,21 +3843,21 @@
       <c r="F1" s="2"/>
     </row>
     <row r="2" spans="1:8" ht="20.25">
-      <c r="B2" s="292" t="s">
+      <c r="B2" s="288" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="292"/>
-      <c r="D2" s="292"/>
-      <c r="E2" s="292"/>
+      <c r="C2" s="288"/>
+      <c r="D2" s="288"/>
+      <c r="E2" s="288"/>
     </row>
     <row r="3" spans="1:8" ht="16.5" customHeight="1">
       <c r="A3" s="35"/>
-      <c r="B3" s="293" t="s">
+      <c r="B3" s="289" t="s">
         <v>170</v>
       </c>
-      <c r="C3" s="293"/>
-      <c r="D3" s="293"/>
-      <c r="E3" s="293"/>
+      <c r="C3" s="289"/>
+      <c r="D3" s="289"/>
+      <c r="E3" s="289"/>
     </row>
     <row r="4" spans="1:8" ht="15.75" customHeight="1">
       <c r="B4" s="36" t="s">
@@ -5040,11 +5029,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BI246"/>
   <sheetViews>
-    <sheetView topLeftCell="A101" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="C126" sqref="C126"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="E120" sqref="E120"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -5070,14 +5059,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:61" ht="19.5">
-      <c r="A1" s="300" t="s">
+      <c r="A1" s="296" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="300"/>
-      <c r="C1" s="300"/>
-      <c r="D1" s="300"/>
-      <c r="E1" s="300"/>
-      <c r="F1" s="300"/>
+      <c r="B1" s="296"/>
+      <c r="C1" s="296"/>
+      <c r="D1" s="296"/>
+      <c r="E1" s="296"/>
+      <c r="F1" s="296"/>
       <c r="L1" s="102"/>
       <c r="M1" s="262"/>
       <c r="N1" s="262"/>
@@ -5130,14 +5119,14 @@
       <c r="BI1" s="262"/>
     </row>
     <row r="2" spans="1:61" ht="15">
-      <c r="A2" s="301" t="s">
+      <c r="A2" s="297" t="s">
         <v>171</v>
       </c>
-      <c r="B2" s="301"/>
-      <c r="C2" s="301"/>
-      <c r="D2" s="301"/>
-      <c r="E2" s="301"/>
-      <c r="F2" s="301"/>
+      <c r="B2" s="297"/>
+      <c r="C2" s="297"/>
+      <c r="D2" s="297"/>
+      <c r="E2" s="297"/>
+      <c r="F2" s="297"/>
       <c r="L2" s="102"/>
       <c r="M2" s="262"/>
       <c r="N2" s="262"/>
@@ -5190,14 +5179,14 @@
       <c r="BI2" s="262"/>
     </row>
     <row r="3" spans="1:61">
-      <c r="A3" s="302" t="s">
+      <c r="A3" s="298" t="s">
         <v>38</v>
       </c>
-      <c r="B3" s="302"/>
-      <c r="C3" s="302"/>
-      <c r="D3" s="302"/>
-      <c r="E3" s="302"/>
-      <c r="F3" s="302"/>
+      <c r="B3" s="298"/>
+      <c r="C3" s="298"/>
+      <c r="D3" s="298"/>
+      <c r="E3" s="298"/>
+      <c r="F3" s="298"/>
       <c r="K3" s="262"/>
       <c r="L3" s="102"/>
       <c r="M3" s="262"/>
@@ -7597,12 +7586,12 @@
       <c r="BI34" s="262"/>
     </row>
     <row r="35" spans="1:61" ht="13.5" thickBot="1">
-      <c r="A35" s="303" t="s">
+      <c r="A35" s="299" t="s">
         <v>44</v>
       </c>
-      <c r="B35" s="304"/>
-      <c r="C35" s="304"/>
-      <c r="D35" s="305"/>
+      <c r="B35" s="300"/>
+      <c r="C35" s="300"/>
+      <c r="D35" s="301"/>
       <c r="E35" s="116"/>
       <c r="F35" s="118"/>
       <c r="G35" s="132"/>
@@ -8161,13 +8150,13 @@
         <v>191</v>
       </c>
       <c r="E43" s="116"/>
-      <c r="F43" s="306" t="s">
+      <c r="F43" s="302" t="s">
         <v>54</v>
       </c>
-      <c r="G43" s="306"/>
-      <c r="H43" s="306"/>
-      <c r="I43" s="306"/>
-      <c r="J43" s="306"/>
+      <c r="G43" s="302"/>
+      <c r="H43" s="302"/>
+      <c r="I43" s="302"/>
+      <c r="J43" s="302"/>
       <c r="K43" s="149"/>
       <c r="L43" s="107"/>
       <c r="M43" s="262"/>
@@ -9418,17 +9407,17 @@
       <c r="BI61" s="262"/>
     </row>
     <row r="62" spans="1:61">
-      <c r="A62" s="307" t="s">
+      <c r="A62" s="303" t="s">
         <v>31</v>
       </c>
-      <c r="B62" s="308"/>
+      <c r="B62" s="304"/>
       <c r="C62" s="156"/>
       <c r="D62" s="163"/>
       <c r="E62" s="124"/>
-      <c r="F62" s="294" t="s">
+      <c r="F62" s="290" t="s">
         <v>166</v>
       </c>
-      <c r="G62" s="294"/>
+      <c r="G62" s="290"/>
       <c r="H62" s="261"/>
       <c r="I62" s="261"/>
       <c r="J62" s="164" t="s">
@@ -13405,10 +13394,10 @@
       <c r="BI111" s="262"/>
     </row>
     <row r="112" spans="1:61">
-      <c r="A112" s="288"/>
-      <c r="B112" s="289"/>
-      <c r="C112" s="290"/>
-      <c r="D112" s="291"/>
+      <c r="A112" s="159"/>
+      <c r="B112" s="163"/>
+      <c r="C112" s="156"/>
+      <c r="D112" s="157"/>
       <c r="F112" s="176"/>
       <c r="G112" s="168" t="s">
         <v>76</v>
@@ -13478,10 +13467,10 @@
       <c r="BI112" s="262"/>
     </row>
     <row r="113" spans="1:61">
-      <c r="A113" s="295" t="s">
+      <c r="A113" s="291" t="s">
         <v>97</v>
       </c>
-      <c r="B113" s="296"/>
+      <c r="B113" s="292"/>
       <c r="C113" s="179">
         <f>SUM(C37:C112)</f>
         <v>2383237</v>
@@ -13631,10 +13620,10 @@
       <c r="BI114" s="262"/>
     </row>
     <row r="115" spans="1:61">
-      <c r="A115" s="297" t="s">
+      <c r="A115" s="293" t="s">
         <v>98</v>
       </c>
-      <c r="B115" s="298"/>
+      <c r="B115" s="294"/>
       <c r="C115" s="184">
         <f>C113+L136</f>
         <v>2383237</v>
@@ -15609,8 +15598,8 @@
       <c r="N169" s="266"/>
     </row>
     <row r="170" spans="5:14">
-      <c r="F170" s="299"/>
-      <c r="G170" s="299"/>
+      <c r="F170" s="295"/>
+      <c r="G170" s="295"/>
       <c r="H170" s="262"/>
       <c r="I170" s="122"/>
       <c r="J170" s="102"/>
@@ -16263,10 +16252,10 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z320"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="10" ySplit="13" topLeftCell="K26" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="K1" sqref="K1"/>
       <selection pane="bottomLeft" activeCell="A15" sqref="A15"/>
@@ -16282,73 +16271,73 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="23.25">
-      <c r="A1" s="309" t="s">
+      <c r="A1" s="311" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="309"/>
-      <c r="C1" s="309"/>
-      <c r="D1" s="309"/>
-      <c r="E1" s="309"/>
-      <c r="F1" s="309"/>
-      <c r="G1" s="309"/>
-      <c r="H1" s="309"/>
-      <c r="I1" s="309"/>
-      <c r="J1" s="309"/>
-      <c r="K1" s="309"/>
-      <c r="L1" s="309"/>
-      <c r="M1" s="309"/>
-      <c r="N1" s="309"/>
-      <c r="O1" s="309"/>
-      <c r="P1" s="309"/>
-      <c r="Q1" s="309"/>
-      <c r="R1" s="309"/>
-      <c r="S1" s="309"/>
+      <c r="B1" s="311"/>
+      <c r="C1" s="311"/>
+      <c r="D1" s="311"/>
+      <c r="E1" s="311"/>
+      <c r="F1" s="311"/>
+      <c r="G1" s="311"/>
+      <c r="H1" s="311"/>
+      <c r="I1" s="311"/>
+      <c r="J1" s="311"/>
+      <c r="K1" s="311"/>
+      <c r="L1" s="311"/>
+      <c r="M1" s="311"/>
+      <c r="N1" s="311"/>
+      <c r="O1" s="311"/>
+      <c r="P1" s="311"/>
+      <c r="Q1" s="311"/>
+      <c r="R1" s="311"/>
+      <c r="S1" s="311"/>
     </row>
     <row r="2" spans="1:26" s="203" customFormat="1" ht="18">
-      <c r="A2" s="310" t="s">
+      <c r="A2" s="312" t="s">
         <v>99</v>
       </c>
-      <c r="B2" s="310"/>
-      <c r="C2" s="310"/>
-      <c r="D2" s="310"/>
-      <c r="E2" s="310"/>
-      <c r="F2" s="310"/>
-      <c r="G2" s="310"/>
-      <c r="H2" s="310"/>
-      <c r="I2" s="310"/>
-      <c r="J2" s="310"/>
-      <c r="K2" s="310"/>
-      <c r="L2" s="310"/>
-      <c r="M2" s="310"/>
-      <c r="N2" s="310"/>
-      <c r="O2" s="310"/>
-      <c r="P2" s="310"/>
-      <c r="Q2" s="310"/>
-      <c r="R2" s="310"/>
-      <c r="S2" s="310"/>
+      <c r="B2" s="312"/>
+      <c r="C2" s="312"/>
+      <c r="D2" s="312"/>
+      <c r="E2" s="312"/>
+      <c r="F2" s="312"/>
+      <c r="G2" s="312"/>
+      <c r="H2" s="312"/>
+      <c r="I2" s="312"/>
+      <c r="J2" s="312"/>
+      <c r="K2" s="312"/>
+      <c r="L2" s="312"/>
+      <c r="M2" s="312"/>
+      <c r="N2" s="312"/>
+      <c r="O2" s="312"/>
+      <c r="P2" s="312"/>
+      <c r="Q2" s="312"/>
+      <c r="R2" s="312"/>
+      <c r="S2" s="312"/>
     </row>
     <row r="3" spans="1:26" s="204" customFormat="1" ht="16.5" thickBot="1">
-      <c r="A3" s="311" t="s">
+      <c r="A3" s="313" t="s">
         <v>172</v>
       </c>
-      <c r="B3" s="312"/>
-      <c r="C3" s="312"/>
-      <c r="D3" s="312"/>
-      <c r="E3" s="312"/>
-      <c r="F3" s="312"/>
-      <c r="G3" s="312"/>
-      <c r="H3" s="312"/>
-      <c r="I3" s="312"/>
-      <c r="J3" s="312"/>
-      <c r="K3" s="312"/>
-      <c r="L3" s="312"/>
-      <c r="M3" s="312"/>
-      <c r="N3" s="312"/>
-      <c r="O3" s="312"/>
-      <c r="P3" s="312"/>
-      <c r="Q3" s="312"/>
-      <c r="R3" s="312"/>
-      <c r="S3" s="313"/>
+      <c r="B3" s="314"/>
+      <c r="C3" s="314"/>
+      <c r="D3" s="314"/>
+      <c r="E3" s="314"/>
+      <c r="F3" s="314"/>
+      <c r="G3" s="314"/>
+      <c r="H3" s="314"/>
+      <c r="I3" s="314"/>
+      <c r="J3" s="314"/>
+      <c r="K3" s="314"/>
+      <c r="L3" s="314"/>
+      <c r="M3" s="314"/>
+      <c r="N3" s="314"/>
+      <c r="O3" s="314"/>
+      <c r="P3" s="314"/>
+      <c r="Q3" s="314"/>
+      <c r="R3" s="314"/>
+      <c r="S3" s="315"/>
       <c r="U3" s="116"/>
       <c r="V3" s="8"/>
       <c r="W3" s="8"/>
@@ -16357,52 +16346,52 @@
       <c r="Z3" s="29"/>
     </row>
     <row r="4" spans="1:26" s="206" customFormat="1">
-      <c r="A4" s="314" t="s">
+      <c r="A4" s="316" t="s">
         <v>100</v>
       </c>
-      <c r="B4" s="316" t="s">
+      <c r="B4" s="318" t="s">
         <v>101</v>
       </c>
-      <c r="C4" s="318" t="s">
+      <c r="C4" s="305" t="s">
         <v>102</v>
       </c>
-      <c r="D4" s="318" t="s">
+      <c r="D4" s="305" t="s">
         <v>103</v>
       </c>
-      <c r="E4" s="318" t="s">
+      <c r="E4" s="305" t="s">
         <v>104</v>
       </c>
-      <c r="F4" s="318" t="s">
+      <c r="F4" s="305" t="s">
         <v>105</v>
       </c>
-      <c r="G4" s="318" t="s">
+      <c r="G4" s="305" t="s">
         <v>106</v>
       </c>
-      <c r="H4" s="318" t="s">
+      <c r="H4" s="305" t="s">
         <v>107</v>
       </c>
-      <c r="I4" s="318" t="s">
+      <c r="I4" s="305" t="s">
         <v>132</v>
       </c>
-      <c r="J4" s="318" t="s">
+      <c r="J4" s="305" t="s">
         <v>108</v>
       </c>
-      <c r="K4" s="318" t="s">
+      <c r="K4" s="305" t="s">
         <v>109</v>
       </c>
-      <c r="L4" s="318" t="s">
+      <c r="L4" s="305" t="s">
         <v>110</v>
       </c>
-      <c r="M4" s="318" t="s">
+      <c r="M4" s="305" t="s">
         <v>111</v>
       </c>
-      <c r="N4" s="318" t="s">
+      <c r="N4" s="305" t="s">
         <v>112</v>
       </c>
-      <c r="O4" s="324" t="s">
+      <c r="O4" s="307" t="s">
         <v>212</v>
       </c>
-      <c r="P4" s="326" t="s">
+      <c r="P4" s="309" t="s">
         <v>113</v>
       </c>
       <c r="Q4" s="322" t="s">
@@ -16421,22 +16410,22 @@
       <c r="Y4" s="208"/>
     </row>
     <row r="5" spans="1:26" s="206" customFormat="1" ht="13.5" thickBot="1">
-      <c r="A5" s="315"/>
-      <c r="B5" s="317"/>
-      <c r="C5" s="319"/>
-      <c r="D5" s="319"/>
-      <c r="E5" s="319"/>
-      <c r="F5" s="319"/>
-      <c r="G5" s="319"/>
-      <c r="H5" s="319"/>
-      <c r="I5" s="319"/>
-      <c r="J5" s="319"/>
-      <c r="K5" s="319"/>
-      <c r="L5" s="319"/>
-      <c r="M5" s="319"/>
-      <c r="N5" s="319"/>
-      <c r="O5" s="325"/>
-      <c r="P5" s="327"/>
+      <c r="A5" s="317"/>
+      <c r="B5" s="319"/>
+      <c r="C5" s="306"/>
+      <c r="D5" s="306"/>
+      <c r="E5" s="306"/>
+      <c r="F5" s="306"/>
+      <c r="G5" s="306"/>
+      <c r="H5" s="306"/>
+      <c r="I5" s="306"/>
+      <c r="J5" s="306"/>
+      <c r="K5" s="306"/>
+      <c r="L5" s="306"/>
+      <c r="M5" s="306"/>
+      <c r="N5" s="306"/>
+      <c r="O5" s="308"/>
+      <c r="P5" s="310"/>
       <c r="Q5" s="323"/>
       <c r="R5" s="321"/>
       <c r="S5" s="210" t="s">
@@ -19829,11 +19818,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="L4:L5"/>
-    <mergeCell ref="M4:M5"/>
-    <mergeCell ref="N4:N5"/>
-    <mergeCell ref="O4:O5"/>
-    <mergeCell ref="P4:P5"/>
     <mergeCell ref="A1:S1"/>
     <mergeCell ref="A2:S2"/>
     <mergeCell ref="A3:S3"/>
@@ -19850,6 +19834,11 @@
     <mergeCell ref="J4:J5"/>
     <mergeCell ref="K4:K5"/>
     <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="L4:L5"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="N4:N5"/>
+    <mergeCell ref="O4:O5"/>
+    <mergeCell ref="P4:P5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -19859,7 +19848,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -19884,24 +19873,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:29" ht="26.25">
-      <c r="A1" s="328" t="s">
+      <c r="A1" s="324" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="329"/>
-      <c r="C1" s="329"/>
-      <c r="D1" s="329"/>
-      <c r="E1" s="330"/>
+      <c r="B1" s="325"/>
+      <c r="C1" s="325"/>
+      <c r="D1" s="325"/>
+      <c r="E1" s="326"/>
       <c r="F1" s="5"/>
       <c r="G1" s="5"/>
     </row>
     <row r="2" spans="1:29" ht="23.25">
-      <c r="A2" s="331" t="s">
+      <c r="A2" s="327" t="s">
         <v>214</v>
       </c>
-      <c r="B2" s="332"/>
-      <c r="C2" s="332"/>
-      <c r="D2" s="332"/>
-      <c r="E2" s="333"/>
+      <c r="B2" s="328"/>
+      <c r="C2" s="328"/>
+      <c r="D2" s="328"/>
+      <c r="E2" s="329"/>
       <c r="F2" s="5"/>
       <c r="G2" s="11"/>
       <c r="H2" s="8"/>
@@ -20389,13 +20378,13 @@
       <c r="AC14" s="8"/>
     </row>
     <row r="15" spans="1:29" ht="22.5">
-      <c r="A15" s="334" t="s">
+      <c r="A15" s="330" t="s">
         <v>16</v>
       </c>
-      <c r="B15" s="335"/>
-      <c r="C15" s="335"/>
-      <c r="D15" s="335"/>
-      <c r="E15" s="336"/>
+      <c r="B15" s="331"/>
+      <c r="C15" s="331"/>
+      <c r="D15" s="331"/>
+      <c r="E15" s="332"/>
       <c r="F15" s="5"/>
       <c r="G15" s="9"/>
       <c r="H15" s="28"/>

--- a/Symphony/2020/December/All Details/31.12.2020/MC Bank Statement Dec-2020.xlsx
+++ b/Symphony/2020/December/All Details/31.12.2020/MC Bank Statement Dec-2020.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" tabRatio="599" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" tabRatio="599" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Dec 2020" sheetId="7" r:id="rId1"/>
@@ -284,7 +284,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="477" uniqueCount="216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="477" uniqueCount="217">
   <si>
     <t>Date</t>
   </si>
@@ -932,6 +932,9 @@
   </si>
   <si>
     <t>B=Molla Enterprise</t>
+  </si>
+  <si>
+    <t>1 % Less</t>
   </si>
 </sst>
 </file>
@@ -3094,12 +3097,51 @@
     <xf numFmtId="0" fontId="39" fillId="35" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="11" fillId="0" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="11" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="11" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="39" fillId="35" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="39" fillId="35" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="39" fillId="35" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="39" fillId="35" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="39" fillId="35" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="39" fillId="35" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="39" fillId="35" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="35" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="35" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="35" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="39" fillId="35" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3110,45 +3152,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="39" fillId="35" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="17" fontId="11" fillId="0" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="17" fontId="11" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="17" fontId="11" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="39" fillId="35" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="39" fillId="35" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="39" fillId="35" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="39" fillId="35" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="35" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="35" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="35" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="35" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5032,8 +5035,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BI246"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="E120" sqref="E120"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -16255,11 +16258,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z320"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="10" ySplit="13" topLeftCell="K26" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="10" ySplit="13" topLeftCell="K32" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="K1" sqref="K1"/>
       <selection pane="bottomLeft" activeCell="A15" sqref="A15"/>
-      <selection pane="bottomRight" activeCell="F34" sqref="F34"/>
+      <selection pane="bottomRight" activeCell="S41" sqref="S41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -16271,73 +16274,73 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="23.25">
-      <c r="A1" s="311" t="s">
+      <c r="A1" s="305" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="311"/>
-      <c r="C1" s="311"/>
-      <c r="D1" s="311"/>
-      <c r="E1" s="311"/>
-      <c r="F1" s="311"/>
-      <c r="G1" s="311"/>
-      <c r="H1" s="311"/>
-      <c r="I1" s="311"/>
-      <c r="J1" s="311"/>
-      <c r="K1" s="311"/>
-      <c r="L1" s="311"/>
-      <c r="M1" s="311"/>
-      <c r="N1" s="311"/>
-      <c r="O1" s="311"/>
-      <c r="P1" s="311"/>
-      <c r="Q1" s="311"/>
-      <c r="R1" s="311"/>
-      <c r="S1" s="311"/>
+      <c r="B1" s="305"/>
+      <c r="C1" s="305"/>
+      <c r="D1" s="305"/>
+      <c r="E1" s="305"/>
+      <c r="F1" s="305"/>
+      <c r="G1" s="305"/>
+      <c r="H1" s="305"/>
+      <c r="I1" s="305"/>
+      <c r="J1" s="305"/>
+      <c r="K1" s="305"/>
+      <c r="L1" s="305"/>
+      <c r="M1" s="305"/>
+      <c r="N1" s="305"/>
+      <c r="O1" s="305"/>
+      <c r="P1" s="305"/>
+      <c r="Q1" s="305"/>
+      <c r="R1" s="305"/>
+      <c r="S1" s="305"/>
     </row>
     <row r="2" spans="1:26" s="203" customFormat="1" ht="18">
-      <c r="A2" s="312" t="s">
+      <c r="A2" s="306" t="s">
         <v>99</v>
       </c>
-      <c r="B2" s="312"/>
-      <c r="C2" s="312"/>
-      <c r="D2" s="312"/>
-      <c r="E2" s="312"/>
-      <c r="F2" s="312"/>
-      <c r="G2" s="312"/>
-      <c r="H2" s="312"/>
-      <c r="I2" s="312"/>
-      <c r="J2" s="312"/>
-      <c r="K2" s="312"/>
-      <c r="L2" s="312"/>
-      <c r="M2" s="312"/>
-      <c r="N2" s="312"/>
-      <c r="O2" s="312"/>
-      <c r="P2" s="312"/>
-      <c r="Q2" s="312"/>
-      <c r="R2" s="312"/>
-      <c r="S2" s="312"/>
+      <c r="B2" s="306"/>
+      <c r="C2" s="306"/>
+      <c r="D2" s="306"/>
+      <c r="E2" s="306"/>
+      <c r="F2" s="306"/>
+      <c r="G2" s="306"/>
+      <c r="H2" s="306"/>
+      <c r="I2" s="306"/>
+      <c r="J2" s="306"/>
+      <c r="K2" s="306"/>
+      <c r="L2" s="306"/>
+      <c r="M2" s="306"/>
+      <c r="N2" s="306"/>
+      <c r="O2" s="306"/>
+      <c r="P2" s="306"/>
+      <c r="Q2" s="306"/>
+      <c r="R2" s="306"/>
+      <c r="S2" s="306"/>
     </row>
     <row r="3" spans="1:26" s="204" customFormat="1" ht="16.5" thickBot="1">
-      <c r="A3" s="313" t="s">
+      <c r="A3" s="307" t="s">
         <v>172</v>
       </c>
-      <c r="B3" s="314"/>
-      <c r="C3" s="314"/>
-      <c r="D3" s="314"/>
-      <c r="E3" s="314"/>
-      <c r="F3" s="314"/>
-      <c r="G3" s="314"/>
-      <c r="H3" s="314"/>
-      <c r="I3" s="314"/>
-      <c r="J3" s="314"/>
-      <c r="K3" s="314"/>
-      <c r="L3" s="314"/>
-      <c r="M3" s="314"/>
-      <c r="N3" s="314"/>
-      <c r="O3" s="314"/>
-      <c r="P3" s="314"/>
-      <c r="Q3" s="314"/>
-      <c r="R3" s="314"/>
-      <c r="S3" s="315"/>
+      <c r="B3" s="308"/>
+      <c r="C3" s="308"/>
+      <c r="D3" s="308"/>
+      <c r="E3" s="308"/>
+      <c r="F3" s="308"/>
+      <c r="G3" s="308"/>
+      <c r="H3" s="308"/>
+      <c r="I3" s="308"/>
+      <c r="J3" s="308"/>
+      <c r="K3" s="308"/>
+      <c r="L3" s="308"/>
+      <c r="M3" s="308"/>
+      <c r="N3" s="308"/>
+      <c r="O3" s="308"/>
+      <c r="P3" s="308"/>
+      <c r="Q3" s="308"/>
+      <c r="R3" s="308"/>
+      <c r="S3" s="309"/>
       <c r="U3" s="116"/>
       <c r="V3" s="8"/>
       <c r="W3" s="8"/>
@@ -16346,58 +16349,58 @@
       <c r="Z3" s="29"/>
     </row>
     <row r="4" spans="1:26" s="206" customFormat="1">
-      <c r="A4" s="316" t="s">
+      <c r="A4" s="310" t="s">
         <v>100</v>
       </c>
-      <c r="B4" s="318" t="s">
+      <c r="B4" s="312" t="s">
         <v>101</v>
       </c>
-      <c r="C4" s="305" t="s">
+      <c r="C4" s="314" t="s">
         <v>102</v>
       </c>
-      <c r="D4" s="305" t="s">
+      <c r="D4" s="314" t="s">
         <v>103</v>
       </c>
-      <c r="E4" s="305" t="s">
+      <c r="E4" s="314" t="s">
         <v>104</v>
       </c>
-      <c r="F4" s="305" t="s">
+      <c r="F4" s="314" t="s">
         <v>105</v>
       </c>
-      <c r="G4" s="305" t="s">
+      <c r="G4" s="314" t="s">
         <v>106</v>
       </c>
-      <c r="H4" s="305" t="s">
+      <c r="H4" s="314" t="s">
         <v>107</v>
       </c>
-      <c r="I4" s="305" t="s">
+      <c r="I4" s="314" t="s">
         <v>132</v>
       </c>
-      <c r="J4" s="305" t="s">
+      <c r="J4" s="314" t="s">
         <v>108</v>
       </c>
-      <c r="K4" s="305" t="s">
+      <c r="K4" s="314" t="s">
         <v>109</v>
       </c>
-      <c r="L4" s="305" t="s">
+      <c r="L4" s="314" t="s">
         <v>110</v>
       </c>
-      <c r="M4" s="305" t="s">
+      <c r="M4" s="314" t="s">
         <v>111</v>
       </c>
-      <c r="N4" s="305" t="s">
+      <c r="N4" s="314" t="s">
         <v>112</v>
       </c>
-      <c r="O4" s="307" t="s">
+      <c r="O4" s="320" t="s">
         <v>212</v>
       </c>
-      <c r="P4" s="309" t="s">
+      <c r="P4" s="322" t="s">
         <v>113</v>
       </c>
-      <c r="Q4" s="322" t="s">
-        <v>29</v>
-      </c>
-      <c r="R4" s="320" t="s">
+      <c r="Q4" s="318" t="s">
+        <v>216</v>
+      </c>
+      <c r="R4" s="316" t="s">
         <v>114</v>
       </c>
       <c r="S4" s="205" t="s">
@@ -16410,24 +16413,24 @@
       <c r="Y4" s="208"/>
     </row>
     <row r="5" spans="1:26" s="206" customFormat="1" ht="13.5" thickBot="1">
-      <c r="A5" s="317"/>
-      <c r="B5" s="319"/>
-      <c r="C5" s="306"/>
-      <c r="D5" s="306"/>
-      <c r="E5" s="306"/>
-      <c r="F5" s="306"/>
-      <c r="G5" s="306"/>
-      <c r="H5" s="306"/>
-      <c r="I5" s="306"/>
-      <c r="J5" s="306"/>
-      <c r="K5" s="306"/>
-      <c r="L5" s="306"/>
-      <c r="M5" s="306"/>
-      <c r="N5" s="306"/>
-      <c r="O5" s="308"/>
-      <c r="P5" s="310"/>
-      <c r="Q5" s="323"/>
-      <c r="R5" s="321"/>
+      <c r="A5" s="311"/>
+      <c r="B5" s="313"/>
+      <c r="C5" s="315"/>
+      <c r="D5" s="315"/>
+      <c r="E5" s="315"/>
+      <c r="F5" s="315"/>
+      <c r="G5" s="315"/>
+      <c r="H5" s="315"/>
+      <c r="I5" s="315"/>
+      <c r="J5" s="315"/>
+      <c r="K5" s="315"/>
+      <c r="L5" s="315"/>
+      <c r="M5" s="315"/>
+      <c r="N5" s="315"/>
+      <c r="O5" s="321"/>
+      <c r="P5" s="323"/>
+      <c r="Q5" s="319"/>
+      <c r="R5" s="317"/>
       <c r="S5" s="210" t="s">
         <v>115</v>
       </c>
@@ -17629,13 +17632,15 @@
       <c r="P32" s="223">
         <v>10000</v>
       </c>
-      <c r="Q32" s="223"/>
+      <c r="Q32" s="223">
+        <v>3415</v>
+      </c>
       <c r="R32" s="225">
         <v>100</v>
       </c>
       <c r="S32" s="219">
         <f t="shared" si="0"/>
-        <v>13419</v>
+        <v>16834</v>
       </c>
       <c r="T32" s="229"/>
     </row>
@@ -17805,7 +17810,7 @@
       </c>
       <c r="Q37" s="241">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>3415</v>
       </c>
       <c r="R37" s="242">
         <f t="shared" si="1"/>
@@ -17813,7 +17818,7 @@
       </c>
       <c r="S37" s="243">
         <f>SUM(S6:S36)</f>
-        <v>76407</v>
+        <v>79822</v>
       </c>
     </row>
     <row r="38" spans="1:20">
@@ -19818,6 +19823,11 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="L4:L5"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="N4:N5"/>
+    <mergeCell ref="O4:O5"/>
+    <mergeCell ref="P4:P5"/>
     <mergeCell ref="A1:S1"/>
     <mergeCell ref="A2:S2"/>
     <mergeCell ref="A3:S3"/>
@@ -19834,11 +19844,6 @@
     <mergeCell ref="J4:J5"/>
     <mergeCell ref="K4:K5"/>
     <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="L4:L5"/>
-    <mergeCell ref="M4:M5"/>
-    <mergeCell ref="N4:N5"/>
-    <mergeCell ref="O4:O5"/>
-    <mergeCell ref="P4:P5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
